--- a/Algoritmo_Rota/Planilhas/BFS/PLN_42_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_42_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2603.033333333333</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2783</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2411</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02690062522888183</v>
+        <v>3013</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4, 13, 40, 25, 35, 33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 25 -&gt; 33 -&gt; 35 -&gt; 34 -&gt; 40 -&gt; 23 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 33 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03479266166687012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2913.1</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>3084</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2774</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02603722413380941</v>
+        <v>2363</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 12, 19, 31, 39, 38, 14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 21 -&gt; 14 -&gt; 12 -&gt; 8 -&gt; 2 -&gt; 27 -&gt; 38 -&gt; 39 -&gt; 31 -&gt; 19 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 19 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03550982475280762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2704.433333333333</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2900</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2605</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02877480189005534</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2788.6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2860</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2672</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02647740046183268</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2388.066666666667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2579</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2302</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02895562648773193</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1965.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2089</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1747</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02960874239603678</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3401.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3663</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3197</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02897758483886719</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3329.866666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3552</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3054</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02900110880533854</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2645.833333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2849</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2325</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.02937769095102946</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2766.966666666667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2964</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2611</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.02671258449554443</v>
+        <v>2380</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 42, 20, 17, 16, 1, 15, 11, 37, 9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 17 -&gt; 16 -&gt; 20 -&gt; 32 -&gt; 42 -&gt; 37 -&gt; 15 -&gt; 11 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 17 -&gt; 16 -&gt; 15 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0359196662902832</v>
       </c>
     </row>
   </sheetData>
